--- a/example.xlsx
+++ b/example.xlsx
@@ -408,7 +408,7 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>i-077f867a2d249272b</v>
+        <v>i-xxxxx</v>
       </c>
       <c r="B2" t="str">
         <v>example-instance</v>
@@ -429,6 +429,32 @@
         <v>PePoDev</v>
       </c>
       <c r="H2" t="str">
+        <v>true</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>arn:aws:rds:ap-southeast-1:xxxx:db:simple-db</v>
+      </c>
+      <c r="B3" t="str">
+        <v>simple-db</v>
+      </c>
+      <c r="C3" t="str">
+        <v>RDS</v>
+      </c>
+      <c r="D3" t="str">
+        <v>DB</v>
+      </c>
+      <c r="E3" t="str">
+        <v>ap-southeast-1</v>
+      </c>
+      <c r="F3" t="str">
+        <v>uat</v>
+      </c>
+      <c r="G3" t="str">
+        <v>Moodle</v>
+      </c>
+      <c r="H3" t="str">
         <v>true</v>
       </c>
     </row>

--- a/example.xlsx
+++ b/example.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -391,18 +391,12 @@
         <v>Service</v>
       </c>
       <c r="D1" t="str">
-        <v>Type</v>
+        <v>Tag: Environment</v>
       </c>
       <c r="E1" t="str">
-        <v>Region</v>
+        <v>Tag: Owner</v>
       </c>
       <c r="F1" t="str">
-        <v>Tag: Environment</v>
-      </c>
-      <c r="G1" t="str">
-        <v>Tag: Owner</v>
-      </c>
-      <c r="H1" t="str">
         <v>Tag: Terraform</v>
       </c>
     </row>
@@ -417,18 +411,12 @@
         <v>EC2</v>
       </c>
       <c r="D2" t="str">
-        <v>Instance</v>
+        <v>(not tagged)</v>
       </c>
       <c r="E2" t="str">
-        <v>ap-southeast-1</v>
+        <v>PePoDev</v>
       </c>
       <c r="F2" t="str">
-        <v>(not tagged)</v>
-      </c>
-      <c r="G2" t="str">
-        <v>PePoDev</v>
-      </c>
-      <c r="H2" t="str">
         <v>true</v>
       </c>
     </row>
@@ -443,29 +431,78 @@
         <v>RDS</v>
       </c>
       <c r="D3" t="str">
-        <v>DB</v>
+        <v>uat</v>
       </c>
       <c r="E3" t="str">
-        <v>ap-southeast-1</v>
+        <v>PePoDev</v>
       </c>
       <c r="F3" t="str">
-        <v>uat</v>
-      </c>
-      <c r="G3" t="str">
-        <v>Moodle</v>
-      </c>
-      <c r="H3" t="str">
         <v>true</v>
       </c>
     </row>
     <row r="4">
-      <c r="G4" t="str">
-        <v/>
+      <c r="A4" t="str">
+        <v>af1f8a2d-1225-4ce6-be8e-7f894aa994ab</v>
+      </c>
+      <c r="B4" t="str">
+        <v>Test</v>
+      </c>
+      <c r="C4" t="str">
+        <v>CertificateManager</v>
+      </c>
+      <c r="D4" t="str">
+        <v>uat</v>
+      </c>
+      <c r="E4" t="str">
+        <v>PePoDev</v>
+      </c>
+      <c r="F4" t="str">
+        <v>true</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>Test</v>
+      </c>
+      <c r="B5" t="str">
+        <v>Test</v>
+      </c>
+      <c r="C5" t="str">
+        <v>CloudFormation</v>
+      </c>
+      <c r="D5" t="str">
+        <v>uat</v>
+      </c>
+      <c r="E5" t="str">
+        <v>PePoDev</v>
+      </c>
+      <c r="F5" t="str">
+        <v>true</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>test</v>
+      </c>
+      <c r="B6" t="str">
+        <v>test</v>
+      </c>
+      <c r="C6" t="str">
+        <v>SSM</v>
+      </c>
+      <c r="D6" t="str">
+        <v>uat</v>
+      </c>
+      <c r="E6" t="str">
+        <v>PePoDev</v>
+      </c>
+      <c r="F6" t="str">
+        <v>true</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F6"/>
   </ignoredErrors>
 </worksheet>
 </file>